--- a/xls_template.xlsx
+++ b/xls_template.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\network_scripts\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985"/>
+    <workbookView xWindow="330" yWindow="390" windowWidth="24600" windowHeight="12450" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ROUTER" sheetId="1" r:id="rId1"/>
@@ -20,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="20">
   <si>
     <t>Hostname</t>
   </si>
@@ -49,13 +44,37 @@
     <t>Interface description</t>
   </si>
   <si>
+    <t>TEMP190516</t>
+  </si>
+  <si>
+    <t>2801 (revision 6.0)</t>
+  </si>
+  <si>
+    <t>Base INFO</t>
+  </si>
+  <si>
+    <t>MAC Address Table</t>
+  </si>
+  <si>
     <t>Interface VLAN</t>
   </si>
   <si>
     <t>Trunk interface</t>
   </si>
   <si>
-    <t>TEMP120116</t>
+    <t>VLAN</t>
+  </si>
+  <si>
+    <t>MAC</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Interface</t>
+  </si>
+  <si>
+    <t>Vendor</t>
   </si>
 </sst>
 </file>
@@ -87,12 +106,38 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -102,9 +147,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="%" xfId="1"/>
@@ -117,9 +179,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -412,23 +471,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:I20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:I48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" customWidth="1"/>
-    <col min="2" max="2" width="31.7109375" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" customWidth="1"/>
-    <col min="4" max="4" width="29.42578125" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" customWidth="1"/>
-    <col min="6" max="6" width="31.28515625" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" customWidth="1"/>
-    <col min="8" max="8" width="25" customWidth="1"/>
-    <col min="9" max="9" width="49.42578125" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="31.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="29.42578125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="31.28515625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="25" style="3" customWidth="1"/>
+    <col min="9" max="9" width="49.42578125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -458,6 +517,165 @@
       </c>
       <c r="I1" s="1" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2"/>
+      <c r="B2"/>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="H2"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F8"/>
+      <c r="H8"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F9"/>
+      <c r="H9"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10"/>
+      <c r="B10"/>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16"/>
+    </row>
+    <row r="17" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17"/>
+    </row>
+    <row r="18" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F18"/>
+      <c r="G18"/>
+    </row>
+    <row r="19" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F19"/>
+      <c r="G19"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>9</v>
+      </c>
+      <c r="B50" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>9</v>
+      </c>
+      <c r="B58" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>9</v>
+      </c>
+      <c r="B66" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>9</v>
+      </c>
+      <c r="B74" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>9</v>
+      </c>
+      <c r="B82" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>9</v>
+      </c>
+      <c r="B90" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>9</v>
+      </c>
+      <c r="B98" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -468,68 +686,1949 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:P220"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:K56"/>
+    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
+      <selection activeCell="I200" sqref="I200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1"/>
-    <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" customWidth="1"/>
-    <col min="4" max="4" width="22.85546875" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" customWidth="1"/>
-    <col min="6" max="6" width="22.5703125" customWidth="1"/>
-    <col min="7" max="7" width="21" customWidth="1"/>
-    <col min="8" max="8" width="29" customWidth="1"/>
-    <col min="9" max="9" width="49.42578125" customWidth="1"/>
-    <col min="10" max="10" width="15.5703125" customWidth="1"/>
-    <col min="11" max="11" width="16.5703125" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="20" style="3" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="22.5703125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="21" style="3" customWidth="1"/>
+    <col min="8" max="8" width="29" style="3" customWidth="1"/>
+    <col min="9" max="9" width="49.42578125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="16.5703125" style="3" customWidth="1"/>
+    <col min="12" max="12" width="8" style="3" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" style="3" customWidth="1"/>
+    <col min="14" max="14" width="10.5703125" style="3" customWidth="1"/>
+    <col min="15" max="15" width="12.5703125" style="3" customWidth="1"/>
+    <col min="16" max="16" width="30.5703125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="8"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
+      <c r="J2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3"/>
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="F4"/>
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="F5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="F6"/>
+      <c r="H6"/>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="F7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="F8"/>
+      <c r="H8"/>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8"/>
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="P8"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="F9"/>
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9"/>
+      <c r="P9"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="F10"/>
+      <c r="H10"/>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="F11"/>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11"/>
+      <c r="M11"/>
+      <c r="N11"/>
+      <c r="O11"/>
+      <c r="P11"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="F12"/>
+      <c r="H12"/>
+      <c r="J12"/>
+      <c r="K12"/>
+      <c r="L12"/>
+      <c r="M12"/>
+      <c r="N12"/>
+      <c r="O12"/>
+      <c r="P12"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="F13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13"/>
+      <c r="L13"/>
+      <c r="M13"/>
+      <c r="N13"/>
+      <c r="O13"/>
+      <c r="P13"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="F14"/>
+      <c r="H14"/>
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="K14"/>
+      <c r="L14"/>
+      <c r="M14"/>
+      <c r="N14"/>
+      <c r="O14"/>
+      <c r="P14"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="F15"/>
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="J15"/>
+      <c r="K15"/>
+      <c r="L15"/>
+      <c r="M15"/>
+      <c r="N15"/>
+      <c r="O15"/>
+      <c r="P15"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="F16"/>
+      <c r="H16"/>
+      <c r="I16"/>
+      <c r="J16"/>
+      <c r="K16"/>
+      <c r="L16"/>
+      <c r="M16"/>
+      <c r="N16"/>
+      <c r="O16"/>
+      <c r="P16"/>
+    </row>
+    <row r="17" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F17"/>
+      <c r="H17"/>
+      <c r="I17"/>
+      <c r="J17"/>
+      <c r="K17"/>
+      <c r="L17"/>
+      <c r="M17"/>
+      <c r="N17"/>
+      <c r="O17"/>
+      <c r="P17"/>
+    </row>
+    <row r="18" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F18"/>
+      <c r="H18"/>
+      <c r="I18"/>
+      <c r="J18"/>
+      <c r="K18"/>
+      <c r="L18"/>
+      <c r="M18"/>
+      <c r="N18"/>
+      <c r="O18"/>
+      <c r="P18"/>
+    </row>
+    <row r="19" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F19"/>
+      <c r="H19"/>
+      <c r="I19"/>
+      <c r="J19"/>
+      <c r="K19"/>
+      <c r="L19"/>
+      <c r="M19"/>
+      <c r="N19"/>
+      <c r="O19"/>
+      <c r="P19"/>
+    </row>
+    <row r="20" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F20"/>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="K20"/>
+      <c r="L20"/>
+      <c r="M20"/>
+      <c r="N20"/>
+      <c r="O20"/>
+      <c r="P20"/>
+    </row>
+    <row r="21" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+      <c r="M21"/>
+      <c r="N21"/>
+      <c r="O21"/>
+      <c r="P21"/>
+    </row>
+    <row r="22" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F22"/>
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+      <c r="M22"/>
+      <c r="N22"/>
+      <c r="O22"/>
+      <c r="P22"/>
+    </row>
+    <row r="23" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F23"/>
+      <c r="H23"/>
+      <c r="I23"/>
+      <c r="J23"/>
+      <c r="K23"/>
+      <c r="L23"/>
+      <c r="M23"/>
+      <c r="N23"/>
+      <c r="O23"/>
+      <c r="P23"/>
+    </row>
+    <row r="24" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F24"/>
+      <c r="H24"/>
+      <c r="I24"/>
+      <c r="J24"/>
+      <c r="K24"/>
+      <c r="L24"/>
+      <c r="M24"/>
+      <c r="N24"/>
+      <c r="O24"/>
+      <c r="P24"/>
+    </row>
+    <row r="25" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F25"/>
+      <c r="H25"/>
+      <c r="I25"/>
+      <c r="J25"/>
+      <c r="K25"/>
+      <c r="L25"/>
+      <c r="M25"/>
+      <c r="N25"/>
+      <c r="O25"/>
+      <c r="P25"/>
+    </row>
+    <row r="26" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F26"/>
+      <c r="H26"/>
+      <c r="I26"/>
+      <c r="J26"/>
+      <c r="K26"/>
+      <c r="L26"/>
+      <c r="M26"/>
+      <c r="N26"/>
+      <c r="O26"/>
+      <c r="P26"/>
+    </row>
+    <row r="27" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F27"/>
+      <c r="H27"/>
+      <c r="J27"/>
+      <c r="K27"/>
+      <c r="L27"/>
+      <c r="M27"/>
+      <c r="N27"/>
+      <c r="O27"/>
+      <c r="P27"/>
+    </row>
+    <row r="28" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F28"/>
+      <c r="H28"/>
+      <c r="I28"/>
+      <c r="J28"/>
+      <c r="K28"/>
+      <c r="L28"/>
+      <c r="M28"/>
+      <c r="N28"/>
+      <c r="O28"/>
+      <c r="P28"/>
+    </row>
+    <row r="29" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F29"/>
+      <c r="H29"/>
+      <c r="J29"/>
+      <c r="K29"/>
+      <c r="L29"/>
+      <c r="M29"/>
+      <c r="N29"/>
+      <c r="O29"/>
+      <c r="P29"/>
+    </row>
+    <row r="30" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F30"/>
+      <c r="H30"/>
+      <c r="I30"/>
+      <c r="J30"/>
+      <c r="K30"/>
+      <c r="L30"/>
+      <c r="M30"/>
+      <c r="N30"/>
+      <c r="O30"/>
+      <c r="P30"/>
+    </row>
+    <row r="31" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F31"/>
+      <c r="H31"/>
+      <c r="J31"/>
+      <c r="K31"/>
+      <c r="L31"/>
+      <c r="M31"/>
+      <c r="N31"/>
+      <c r="O31"/>
+      <c r="P31"/>
+    </row>
+    <row r="32" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F32"/>
+      <c r="H32"/>
+      <c r="I32"/>
+      <c r="J32"/>
+      <c r="K32"/>
+      <c r="L32"/>
+      <c r="M32"/>
+      <c r="N32"/>
+      <c r="O32"/>
+      <c r="P32"/>
+    </row>
+    <row r="33" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F33"/>
+      <c r="H33"/>
+      <c r="J33"/>
+      <c r="K33"/>
+      <c r="L33"/>
+      <c r="M33"/>
+      <c r="N33"/>
+      <c r="O33"/>
+      <c r="P33"/>
+    </row>
+    <row r="34" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F34"/>
+      <c r="H34"/>
+      <c r="I34"/>
+      <c r="J34"/>
+      <c r="K34"/>
+      <c r="L34"/>
+      <c r="M34"/>
+      <c r="N34"/>
+      <c r="O34"/>
+      <c r="P34"/>
+    </row>
+    <row r="35" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F35"/>
+      <c r="H35"/>
+      <c r="J35"/>
+      <c r="K35"/>
+      <c r="L35"/>
+      <c r="M35"/>
+      <c r="N35"/>
+      <c r="O35"/>
+      <c r="P35"/>
+    </row>
+    <row r="36" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F36"/>
+      <c r="H36"/>
+      <c r="I36"/>
+      <c r="J36"/>
+      <c r="K36"/>
+      <c r="L36"/>
+      <c r="M36"/>
+      <c r="N36"/>
+      <c r="O36"/>
+      <c r="P36"/>
+    </row>
+    <row r="37" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F37"/>
+      <c r="H37"/>
+      <c r="I37"/>
+      <c r="J37"/>
+      <c r="K37"/>
+      <c r="L37"/>
+      <c r="M37"/>
+      <c r="N37"/>
+      <c r="O37"/>
+      <c r="P37"/>
+    </row>
+    <row r="38" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F38"/>
+      <c r="H38"/>
+      <c r="J38"/>
+      <c r="K38"/>
+      <c r="L38"/>
+      <c r="M38"/>
+      <c r="N38"/>
+      <c r="O38"/>
+      <c r="P38"/>
+    </row>
+    <row r="39" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F39"/>
+      <c r="H39"/>
+      <c r="I39"/>
+      <c r="J39"/>
+      <c r="K39"/>
+      <c r="L39"/>
+      <c r="M39"/>
+      <c r="N39"/>
+      <c r="O39"/>
+      <c r="P39"/>
+    </row>
+    <row r="40" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F40"/>
+      <c r="H40"/>
+      <c r="I40"/>
+      <c r="J40"/>
+      <c r="K40"/>
+      <c r="L40"/>
+      <c r="M40"/>
+      <c r="N40"/>
+      <c r="O40"/>
+      <c r="P40"/>
+    </row>
+    <row r="41" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F41"/>
+      <c r="H41"/>
+      <c r="I41"/>
+      <c r="J41"/>
+      <c r="K41"/>
+      <c r="L41"/>
+      <c r="M41"/>
+      <c r="N41"/>
+      <c r="O41"/>
+      <c r="P41"/>
+    </row>
+    <row r="42" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F42"/>
+      <c r="H42"/>
+      <c r="I42"/>
+      <c r="J42"/>
+      <c r="K42"/>
+      <c r="L42"/>
+      <c r="M42"/>
+      <c r="N42"/>
+      <c r="O42"/>
+      <c r="P42"/>
+    </row>
+    <row r="43" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F43"/>
+      <c r="H43"/>
+      <c r="I43"/>
+      <c r="J43"/>
+      <c r="K43"/>
+      <c r="L43"/>
+      <c r="M43"/>
+      <c r="N43"/>
+      <c r="O43"/>
+      <c r="P43"/>
+    </row>
+    <row r="44" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F44"/>
+      <c r="H44"/>
+      <c r="J44"/>
+      <c r="K44"/>
+      <c r="L44"/>
+      <c r="M44"/>
+      <c r="N44"/>
+      <c r="O44"/>
+      <c r="P44"/>
+    </row>
+    <row r="45" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F45"/>
+      <c r="H45"/>
+      <c r="I45"/>
+      <c r="J45"/>
+      <c r="K45"/>
+      <c r="L45"/>
+      <c r="M45"/>
+      <c r="N45"/>
+      <c r="O45"/>
+      <c r="P45"/>
+    </row>
+    <row r="46" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F46"/>
+      <c r="H46"/>
+      <c r="I46"/>
+      <c r="J46"/>
+      <c r="K46"/>
+      <c r="L46"/>
+      <c r="M46"/>
+      <c r="N46"/>
+      <c r="O46"/>
+      <c r="P46"/>
+    </row>
+    <row r="47" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F47"/>
+      <c r="H47"/>
+      <c r="J47"/>
+      <c r="K47"/>
+      <c r="L47"/>
+      <c r="M47"/>
+      <c r="N47"/>
+      <c r="O47"/>
+      <c r="P47"/>
+    </row>
+    <row r="48" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F48"/>
+      <c r="H48"/>
+      <c r="I48"/>
+      <c r="J48"/>
+      <c r="K48"/>
+      <c r="L48"/>
+      <c r="M48"/>
+      <c r="N48"/>
+      <c r="O48"/>
+      <c r="P48"/>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="F49"/>
+      <c r="H49"/>
+      <c r="J49"/>
+      <c r="K49"/>
+      <c r="L49"/>
+      <c r="M49"/>
+      <c r="N49"/>
+      <c r="O49"/>
+      <c r="P49"/>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="F50"/>
+      <c r="H50"/>
+      <c r="I50"/>
+      <c r="J50"/>
+      <c r="K50"/>
+      <c r="L50"/>
+      <c r="M50"/>
+      <c r="N50"/>
+      <c r="O50"/>
+      <c r="P50"/>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="F51"/>
+      <c r="H51"/>
+      <c r="I51"/>
+      <c r="J51"/>
+      <c r="K51"/>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="F52"/>
+      <c r="H52"/>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="F53"/>
+      <c r="H53"/>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="F54"/>
+      <c r="H54"/>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="F55"/>
+      <c r="H55"/>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="F56"/>
+      <c r="G56"/>
+      <c r="H56"/>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A57"/>
+      <c r="B57"/>
+      <c r="C57"/>
+      <c r="D57"/>
+      <c r="E57"/>
+      <c r="F57"/>
+      <c r="H57"/>
+      <c r="J57"/>
+      <c r="K57"/>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="F58"/>
+      <c r="H58"/>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="F59"/>
+      <c r="H59"/>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="F60"/>
+      <c r="H60"/>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="F61"/>
+      <c r="H61"/>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="F62"/>
+      <c r="H62"/>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="F63"/>
+      <c r="H63"/>
+      <c r="J63"/>
+      <c r="K63"/>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="F64"/>
+      <c r="H64"/>
+    </row>
+    <row r="65" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="F65"/>
+      <c r="H65"/>
+    </row>
+    <row r="66" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="F66"/>
+      <c r="H66"/>
+    </row>
+    <row r="67" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="F67"/>
+      <c r="H67"/>
+    </row>
+    <row r="68" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="F68"/>
+      <c r="H68"/>
+      <c r="J68"/>
+      <c r="K68"/>
+    </row>
+    <row r="69" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="F69"/>
+      <c r="H69"/>
+    </row>
+    <row r="70" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="F70"/>
+      <c r="H70"/>
+    </row>
+    <row r="71" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="F71"/>
+      <c r="H71"/>
+    </row>
+    <row r="72" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="F72"/>
+      <c r="H72"/>
+    </row>
+    <row r="73" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="F73"/>
+      <c r="H73"/>
+    </row>
+    <row r="74" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="F74"/>
+      <c r="H74"/>
+    </row>
+    <row r="75" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="F75"/>
+      <c r="H75"/>
+    </row>
+    <row r="76" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="F76"/>
+      <c r="H76"/>
+    </row>
+    <row r="77" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="F77"/>
+      <c r="H77"/>
+    </row>
+    <row r="78" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="F78"/>
+      <c r="H78"/>
+    </row>
+    <row r="79" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="F79"/>
+      <c r="H79"/>
+      <c r="J79"/>
+      <c r="K79"/>
+    </row>
+    <row r="80" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="F80"/>
+      <c r="H80"/>
+    </row>
+    <row r="81" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="F81"/>
+      <c r="H81"/>
+    </row>
+    <row r="82" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="F82"/>
+      <c r="H82"/>
+    </row>
+    <row r="83" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="F83"/>
+      <c r="H83"/>
+    </row>
+    <row r="84" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="F84"/>
+      <c r="H84"/>
+    </row>
+    <row r="85" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="F85"/>
+      <c r="H85"/>
+    </row>
+    <row r="86" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="F86"/>
+      <c r="H86"/>
+    </row>
+    <row r="87" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="F87"/>
+      <c r="H87"/>
+    </row>
+    <row r="88" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="F88"/>
+      <c r="H88"/>
+    </row>
+    <row r="89" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="F89"/>
+      <c r="H89"/>
+    </row>
+    <row r="90" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="F90"/>
+      <c r="H90"/>
+      <c r="J90"/>
+      <c r="K90"/>
+    </row>
+    <row r="91" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="F91"/>
+      <c r="H91"/>
+    </row>
+    <row r="92" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="F92"/>
+      <c r="H92"/>
+    </row>
+    <row r="93" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="F93"/>
+      <c r="H93"/>
+    </row>
+    <row r="94" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="F94"/>
+      <c r="H94"/>
+    </row>
+    <row r="95" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="F95"/>
+      <c r="H95"/>
+    </row>
+    <row r="96" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="F96"/>
+      <c r="H96"/>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="F97"/>
+      <c r="H97"/>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="F98"/>
+      <c r="H98"/>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="F99"/>
+      <c r="H99"/>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="F100"/>
+      <c r="H100"/>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="F101"/>
+      <c r="H101"/>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="F102"/>
+      <c r="H102"/>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="F103"/>
+      <c r="H103"/>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="F104"/>
+      <c r="H104"/>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="F105"/>
+      <c r="H105"/>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="F106"/>
+      <c r="H106"/>
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="F107"/>
+      <c r="H107"/>
+    </row>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="F108"/>
+      <c r="H108"/>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="F109"/>
+      <c r="G109"/>
+      <c r="H109"/>
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A110"/>
+      <c r="B110"/>
+      <c r="C110"/>
+      <c r="D110"/>
+      <c r="E110"/>
+      <c r="F110"/>
+      <c r="G110"/>
+      <c r="H110"/>
+      <c r="I110"/>
+      <c r="J110"/>
+      <c r="K110"/>
+      <c r="L110"/>
+      <c r="M110"/>
+      <c r="N110"/>
+      <c r="O110"/>
+      <c r="P110"/>
+    </row>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="F111"/>
+      <c r="G111"/>
+      <c r="H111"/>
+      <c r="I111"/>
+      <c r="J111"/>
+      <c r="K111"/>
+      <c r="L111"/>
+      <c r="M111"/>
+      <c r="N111"/>
+      <c r="O111"/>
+      <c r="P111"/>
+    </row>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="F112"/>
+      <c r="G112"/>
+      <c r="H112"/>
+      <c r="I112"/>
+      <c r="J112"/>
+      <c r="K112"/>
+      <c r="L112"/>
+      <c r="M112"/>
+      <c r="N112"/>
+      <c r="O112"/>
+      <c r="P112"/>
+    </row>
+    <row r="113" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F113"/>
+      <c r="G113"/>
+      <c r="H113"/>
+      <c r="I113"/>
+      <c r="J113"/>
+      <c r="K113"/>
+      <c r="L113"/>
+      <c r="M113"/>
+      <c r="N113"/>
+      <c r="O113"/>
+      <c r="P113"/>
+    </row>
+    <row r="114" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F114"/>
+      <c r="G114"/>
+      <c r="H114"/>
+      <c r="I114"/>
+      <c r="J114"/>
+      <c r="K114"/>
+      <c r="L114"/>
+      <c r="M114"/>
+      <c r="N114"/>
+      <c r="O114"/>
+      <c r="P114"/>
+    </row>
+    <row r="115" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F115"/>
+      <c r="G115"/>
+      <c r="H115"/>
+      <c r="I115"/>
+      <c r="J115"/>
+      <c r="K115"/>
+      <c r="L115"/>
+      <c r="M115"/>
+      <c r="N115"/>
+      <c r="O115"/>
+      <c r="P115"/>
+    </row>
+    <row r="116" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F116"/>
+      <c r="G116"/>
+      <c r="H116"/>
+      <c r="I116"/>
+      <c r="J116"/>
+      <c r="K116"/>
+      <c r="L116"/>
+      <c r="M116"/>
+      <c r="N116"/>
+      <c r="O116"/>
+      <c r="P116"/>
+    </row>
+    <row r="117" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F117"/>
+      <c r="G117"/>
+      <c r="H117"/>
+      <c r="I117"/>
+      <c r="J117"/>
+      <c r="K117"/>
+      <c r="L117"/>
+      <c r="M117"/>
+      <c r="N117"/>
+      <c r="O117"/>
+      <c r="P117"/>
+    </row>
+    <row r="118" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F118"/>
+      <c r="G118"/>
+      <c r="H118"/>
+      <c r="I118"/>
+      <c r="J118"/>
+      <c r="K118"/>
+      <c r="L118"/>
+      <c r="M118"/>
+      <c r="N118"/>
+      <c r="O118"/>
+      <c r="P118"/>
+    </row>
+    <row r="119" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F119"/>
+      <c r="G119"/>
+      <c r="H119"/>
+      <c r="I119"/>
+      <c r="J119"/>
+      <c r="K119"/>
+      <c r="L119"/>
+      <c r="M119"/>
+      <c r="N119"/>
+      <c r="O119"/>
+      <c r="P119"/>
+    </row>
+    <row r="120" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F120"/>
+      <c r="G120"/>
+      <c r="H120"/>
+      <c r="I120"/>
+      <c r="J120"/>
+      <c r="K120"/>
+      <c r="L120"/>
+      <c r="M120"/>
+      <c r="N120"/>
+      <c r="O120"/>
+      <c r="P120"/>
+    </row>
+    <row r="121" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F121"/>
+      <c r="G121"/>
+      <c r="H121"/>
+      <c r="I121"/>
+      <c r="J121"/>
+      <c r="K121"/>
+      <c r="L121"/>
+      <c r="M121"/>
+      <c r="N121"/>
+      <c r="O121"/>
+      <c r="P121"/>
+    </row>
+    <row r="122" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F122"/>
+      <c r="G122"/>
+      <c r="H122"/>
+      <c r="I122"/>
+      <c r="J122"/>
+      <c r="K122"/>
+      <c r="L122"/>
+      <c r="M122"/>
+      <c r="N122"/>
+      <c r="O122"/>
+      <c r="P122"/>
+    </row>
+    <row r="123" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F123"/>
+      <c r="G123"/>
+      <c r="H123"/>
+      <c r="I123"/>
+      <c r="J123"/>
+      <c r="K123"/>
+      <c r="L123"/>
+      <c r="M123"/>
+      <c r="N123"/>
+      <c r="O123"/>
+      <c r="P123"/>
+    </row>
+    <row r="124" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F124"/>
+      <c r="G124"/>
+      <c r="H124"/>
+      <c r="I124"/>
+      <c r="J124"/>
+      <c r="K124"/>
+      <c r="L124"/>
+      <c r="M124"/>
+      <c r="N124"/>
+      <c r="O124"/>
+      <c r="P124"/>
+    </row>
+    <row r="125" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F125"/>
+      <c r="G125"/>
+      <c r="H125"/>
+      <c r="I125"/>
+      <c r="J125"/>
+      <c r="K125"/>
+      <c r="L125"/>
+      <c r="M125"/>
+      <c r="N125"/>
+      <c r="O125"/>
+      <c r="P125"/>
+    </row>
+    <row r="126" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F126"/>
+      <c r="G126"/>
+      <c r="H126"/>
+      <c r="I126"/>
+      <c r="J126"/>
+      <c r="K126"/>
+      <c r="L126"/>
+      <c r="M126"/>
+      <c r="N126"/>
+      <c r="O126"/>
+      <c r="P126"/>
+    </row>
+    <row r="127" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F127"/>
+      <c r="G127"/>
+      <c r="H127"/>
+      <c r="I127"/>
+      <c r="J127"/>
+      <c r="K127"/>
+      <c r="L127"/>
+      <c r="M127"/>
+      <c r="N127"/>
+      <c r="O127"/>
+      <c r="P127"/>
+    </row>
+    <row r="128" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F128"/>
+      <c r="G128"/>
+      <c r="H128"/>
+      <c r="I128"/>
+      <c r="J128"/>
+      <c r="K128"/>
+      <c r="L128"/>
+      <c r="M128"/>
+      <c r="N128"/>
+      <c r="O128"/>
+      <c r="P128"/>
+    </row>
+    <row r="129" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F129"/>
+      <c r="G129"/>
+      <c r="H129"/>
+      <c r="I129"/>
+      <c r="J129"/>
+      <c r="K129"/>
+      <c r="L129"/>
+      <c r="M129"/>
+      <c r="N129"/>
+      <c r="O129"/>
+      <c r="P129"/>
+    </row>
+    <row r="130" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F130"/>
+      <c r="G130"/>
+      <c r="H130"/>
+      <c r="I130"/>
+      <c r="J130"/>
+      <c r="K130"/>
+      <c r="L130"/>
+      <c r="M130"/>
+      <c r="N130"/>
+      <c r="O130"/>
+      <c r="P130"/>
+    </row>
+    <row r="131" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F131"/>
+      <c r="G131"/>
+      <c r="H131"/>
+      <c r="I131"/>
+      <c r="J131"/>
+      <c r="K131"/>
+      <c r="L131"/>
+      <c r="M131"/>
+      <c r="N131"/>
+      <c r="O131"/>
+      <c r="P131"/>
+    </row>
+    <row r="132" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F132"/>
+      <c r="G132"/>
+      <c r="H132"/>
+      <c r="I132"/>
+      <c r="J132"/>
+      <c r="K132"/>
+      <c r="L132"/>
+      <c r="M132"/>
+      <c r="N132"/>
+      <c r="O132"/>
+      <c r="P132"/>
+    </row>
+    <row r="133" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F133"/>
+      <c r="G133"/>
+      <c r="H133"/>
+      <c r="I133"/>
+      <c r="J133"/>
+      <c r="K133"/>
+      <c r="L133"/>
+      <c r="M133"/>
+      <c r="N133"/>
+      <c r="O133"/>
+      <c r="P133"/>
+    </row>
+    <row r="134" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F134"/>
+      <c r="G134"/>
+      <c r="H134"/>
+      <c r="I134"/>
+      <c r="J134"/>
+      <c r="K134"/>
+      <c r="L134"/>
+      <c r="M134"/>
+      <c r="N134"/>
+      <c r="O134"/>
+      <c r="P134"/>
+    </row>
+    <row r="135" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F135"/>
+      <c r="G135"/>
+      <c r="H135"/>
+      <c r="I135"/>
+      <c r="J135"/>
+      <c r="K135"/>
+      <c r="L135"/>
+      <c r="M135"/>
+      <c r="N135"/>
+      <c r="O135"/>
+      <c r="P135"/>
+    </row>
+    <row r="136" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F136"/>
+      <c r="G136"/>
+      <c r="H136"/>
+      <c r="I136"/>
+      <c r="J136"/>
+      <c r="K136"/>
+      <c r="L136"/>
+      <c r="M136"/>
+      <c r="N136"/>
+      <c r="O136"/>
+      <c r="P136"/>
+    </row>
+    <row r="137" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F137"/>
+      <c r="G137"/>
+      <c r="H137"/>
+      <c r="I137"/>
+      <c r="J137"/>
+      <c r="K137"/>
+      <c r="L137"/>
+      <c r="M137"/>
+      <c r="N137"/>
+      <c r="O137"/>
+      <c r="P137"/>
+    </row>
+    <row r="138" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F138"/>
+      <c r="G138"/>
+      <c r="H138"/>
+      <c r="I138"/>
+      <c r="J138"/>
+      <c r="K138"/>
+      <c r="L138"/>
+      <c r="M138"/>
+      <c r="N138"/>
+      <c r="O138"/>
+      <c r="P138"/>
+    </row>
+    <row r="139" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F139"/>
+      <c r="G139"/>
+      <c r="H139"/>
+      <c r="I139"/>
+      <c r="J139"/>
+      <c r="K139"/>
+      <c r="L139"/>
+      <c r="M139"/>
+      <c r="N139"/>
+      <c r="O139"/>
+      <c r="P139"/>
+    </row>
+    <row r="140" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F140"/>
+      <c r="G140"/>
+      <c r="H140"/>
+      <c r="I140"/>
+      <c r="J140"/>
+      <c r="K140"/>
+      <c r="L140"/>
+      <c r="M140"/>
+      <c r="N140"/>
+      <c r="O140"/>
+      <c r="P140"/>
+    </row>
+    <row r="141" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F141"/>
+      <c r="G141"/>
+      <c r="H141"/>
+      <c r="I141"/>
+      <c r="J141"/>
+      <c r="K141"/>
+      <c r="L141"/>
+      <c r="M141"/>
+      <c r="N141"/>
+      <c r="O141"/>
+      <c r="P141"/>
+    </row>
+    <row r="142" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F142"/>
+      <c r="G142"/>
+      <c r="H142"/>
+      <c r="I142"/>
+      <c r="J142"/>
+      <c r="K142"/>
+      <c r="L142"/>
+      <c r="M142"/>
+      <c r="N142"/>
+      <c r="O142"/>
+      <c r="P142"/>
+    </row>
+    <row r="143" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F143"/>
+      <c r="G143"/>
+      <c r="H143"/>
+      <c r="I143"/>
+      <c r="J143"/>
+      <c r="K143"/>
+      <c r="L143"/>
+      <c r="M143"/>
+      <c r="N143"/>
+      <c r="O143"/>
+      <c r="P143"/>
+    </row>
+    <row r="144" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F144"/>
+      <c r="G144"/>
+      <c r="H144"/>
+      <c r="I144"/>
+      <c r="J144"/>
+      <c r="K144"/>
+      <c r="L144"/>
+      <c r="M144"/>
+      <c r="N144"/>
+      <c r="O144"/>
+      <c r="P144"/>
+    </row>
+    <row r="145" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F145"/>
+      <c r="G145"/>
+      <c r="H145"/>
+      <c r="I145"/>
+      <c r="J145"/>
+      <c r="K145"/>
+      <c r="L145"/>
+      <c r="M145"/>
+      <c r="N145"/>
+      <c r="O145"/>
+      <c r="P145"/>
+    </row>
+    <row r="146" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F146"/>
+      <c r="G146"/>
+      <c r="H146"/>
+      <c r="I146"/>
+      <c r="J146"/>
+      <c r="K146"/>
+      <c r="L146"/>
+      <c r="M146"/>
+      <c r="N146"/>
+      <c r="O146"/>
+      <c r="P146"/>
+    </row>
+    <row r="147" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F147"/>
+      <c r="G147"/>
+      <c r="H147"/>
+      <c r="I147"/>
+      <c r="J147"/>
+      <c r="K147"/>
+      <c r="L147"/>
+      <c r="M147"/>
+      <c r="N147"/>
+      <c r="O147"/>
+      <c r="P147"/>
+    </row>
+    <row r="148" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F148"/>
+      <c r="G148"/>
+      <c r="H148"/>
+      <c r="I148"/>
+      <c r="J148"/>
+      <c r="K148"/>
+      <c r="L148"/>
+      <c r="M148"/>
+      <c r="N148"/>
+      <c r="O148"/>
+      <c r="P148"/>
+    </row>
+    <row r="149" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F149"/>
+      <c r="G149"/>
+      <c r="H149"/>
+      <c r="I149"/>
+      <c r="J149"/>
+      <c r="K149"/>
+      <c r="L149"/>
+      <c r="M149"/>
+      <c r="N149"/>
+      <c r="O149"/>
+      <c r="P149"/>
+    </row>
+    <row r="150" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F150"/>
+      <c r="G150"/>
+      <c r="H150"/>
+      <c r="I150"/>
+      <c r="J150"/>
+      <c r="K150"/>
+      <c r="L150"/>
+      <c r="M150"/>
+      <c r="N150"/>
+      <c r="O150"/>
+      <c r="P150"/>
+    </row>
+    <row r="151" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F151"/>
+      <c r="G151"/>
+      <c r="H151"/>
+      <c r="I151"/>
+      <c r="J151"/>
+      <c r="K151"/>
+      <c r="L151"/>
+      <c r="M151"/>
+      <c r="N151"/>
+      <c r="O151"/>
+      <c r="P151"/>
+    </row>
+    <row r="152" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F152"/>
+      <c r="G152"/>
+      <c r="H152"/>
+      <c r="I152"/>
+      <c r="J152"/>
+      <c r="K152"/>
+      <c r="L152"/>
+      <c r="M152"/>
+      <c r="N152"/>
+      <c r="O152"/>
+      <c r="P152"/>
+    </row>
+    <row r="153" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F153"/>
+      <c r="G153"/>
+      <c r="H153"/>
+      <c r="I153"/>
+      <c r="J153"/>
+      <c r="K153"/>
+      <c r="L153"/>
+      <c r="M153"/>
+      <c r="N153"/>
+      <c r="O153"/>
+      <c r="P153"/>
+    </row>
+    <row r="154" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F154"/>
+      <c r="G154"/>
+      <c r="H154"/>
+      <c r="I154"/>
+      <c r="J154"/>
+      <c r="K154"/>
+      <c r="L154"/>
+      <c r="M154"/>
+      <c r="N154"/>
+      <c r="O154"/>
+      <c r="P154"/>
+    </row>
+    <row r="155" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F155"/>
+      <c r="G155"/>
+      <c r="H155"/>
+      <c r="I155"/>
+      <c r="J155"/>
+      <c r="K155"/>
+      <c r="L155"/>
+      <c r="M155"/>
+      <c r="N155"/>
+      <c r="O155"/>
+      <c r="P155"/>
+    </row>
+    <row r="156" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F156"/>
+      <c r="G156"/>
+      <c r="H156"/>
+      <c r="I156"/>
+      <c r="J156"/>
+      <c r="K156"/>
+      <c r="L156"/>
+      <c r="M156"/>
+      <c r="N156"/>
+      <c r="O156"/>
+      <c r="P156"/>
+    </row>
+    <row r="157" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F157"/>
+      <c r="G157"/>
+      <c r="H157"/>
+      <c r="I157"/>
+      <c r="J157"/>
+      <c r="K157"/>
+      <c r="L157"/>
+      <c r="M157"/>
+      <c r="N157"/>
+      <c r="O157"/>
+      <c r="P157"/>
+    </row>
+    <row r="158" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F158"/>
+      <c r="G158"/>
+      <c r="H158"/>
+      <c r="I158"/>
+      <c r="J158"/>
+      <c r="K158"/>
+    </row>
+    <row r="159" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F159"/>
+      <c r="G159"/>
+      <c r="H159"/>
+      <c r="I159"/>
+    </row>
+    <row r="160" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F160"/>
+      <c r="G160"/>
+      <c r="H160"/>
+      <c r="I160"/>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F161"/>
+      <c r="G161"/>
+      <c r="H161"/>
+      <c r="I161"/>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F162"/>
+      <c r="G162"/>
+      <c r="H162"/>
+      <c r="I162"/>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F163"/>
+      <c r="G163"/>
+      <c r="H163"/>
+      <c r="I163"/>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F164"/>
+      <c r="G164"/>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F165"/>
+      <c r="G165"/>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A166"/>
+      <c r="B166"/>
+      <c r="C166"/>
+      <c r="D166"/>
+      <c r="E166"/>
+      <c r="F166"/>
+      <c r="G166"/>
+      <c r="H166"/>
+      <c r="I166"/>
+      <c r="J166"/>
+      <c r="K166"/>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F167"/>
+      <c r="G167"/>
+      <c r="H167"/>
+      <c r="I167"/>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F168"/>
+      <c r="G168"/>
+      <c r="H168"/>
+      <c r="I168"/>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F169"/>
+      <c r="G169"/>
+      <c r="H169"/>
+      <c r="I169"/>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F170"/>
+      <c r="G170"/>
+      <c r="H170"/>
+      <c r="I170"/>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F171"/>
+      <c r="G171"/>
+      <c r="H171"/>
+      <c r="I171"/>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F172"/>
+      <c r="G172"/>
+      <c r="H172"/>
+      <c r="I172"/>
+      <c r="J172"/>
+      <c r="K172"/>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F173"/>
+      <c r="G173"/>
+      <c r="H173"/>
+      <c r="I173"/>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F174"/>
+      <c r="G174"/>
+      <c r="H174"/>
+      <c r="I174"/>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F175"/>
+      <c r="G175"/>
+      <c r="H175"/>
+      <c r="I175"/>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F176"/>
+      <c r="G176"/>
+      <c r="H176"/>
+      <c r="I176"/>
+    </row>
+    <row r="177" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="F177"/>
+      <c r="G177"/>
+      <c r="H177"/>
+      <c r="I177"/>
+      <c r="J177"/>
+      <c r="K177"/>
+    </row>
+    <row r="178" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="F178"/>
+      <c r="G178"/>
+      <c r="H178"/>
+      <c r="I178"/>
+    </row>
+    <row r="179" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="F179"/>
+      <c r="G179"/>
+      <c r="H179"/>
+      <c r="I179"/>
+    </row>
+    <row r="180" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="F180"/>
+      <c r="G180"/>
+      <c r="H180"/>
+      <c r="I180"/>
+    </row>
+    <row r="181" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="F181"/>
+      <c r="G181"/>
+      <c r="H181"/>
+      <c r="I181"/>
+    </row>
+    <row r="182" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="F182"/>
+      <c r="G182"/>
+      <c r="H182"/>
+      <c r="I182"/>
+    </row>
+    <row r="183" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="F183"/>
+      <c r="G183"/>
+      <c r="H183"/>
+      <c r="I183"/>
+    </row>
+    <row r="184" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="F184"/>
+      <c r="G184"/>
+      <c r="H184"/>
+      <c r="I184"/>
+    </row>
+    <row r="185" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="F185"/>
+      <c r="G185"/>
+      <c r="H185"/>
+      <c r="I185"/>
+    </row>
+    <row r="186" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="F186"/>
+      <c r="G186"/>
+      <c r="H186"/>
+      <c r="I186"/>
+    </row>
+    <row r="187" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="F187"/>
+      <c r="G187"/>
+      <c r="H187"/>
+      <c r="I187"/>
+    </row>
+    <row r="188" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="F188"/>
+      <c r="G188"/>
+      <c r="H188"/>
+      <c r="I188"/>
+      <c r="J188"/>
+      <c r="K188"/>
+    </row>
+    <row r="189" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="F189"/>
+      <c r="G189"/>
+      <c r="H189"/>
+      <c r="I189"/>
+    </row>
+    <row r="190" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="F190"/>
+      <c r="G190"/>
+      <c r="H190"/>
+      <c r="I190"/>
+    </row>
+    <row r="191" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="F191"/>
+      <c r="G191"/>
+      <c r="H191"/>
+      <c r="I191"/>
+    </row>
+    <row r="192" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="F192"/>
+      <c r="G192"/>
+      <c r="H192"/>
+      <c r="I192"/>
+    </row>
+    <row r="193" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="F193"/>
+      <c r="G193"/>
+      <c r="H193"/>
+      <c r="I193"/>
+    </row>
+    <row r="194" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="F194"/>
+      <c r="G194"/>
+      <c r="H194"/>
+      <c r="I194"/>
+    </row>
+    <row r="195" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="F195"/>
+      <c r="G195"/>
+      <c r="H195"/>
+      <c r="I195"/>
+    </row>
+    <row r="196" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="F196"/>
+      <c r="G196"/>
+      <c r="H196"/>
+      <c r="I196"/>
+    </row>
+    <row r="197" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="F197"/>
+      <c r="G197"/>
+      <c r="H197"/>
+      <c r="I197"/>
+    </row>
+    <row r="198" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="F198"/>
+      <c r="G198"/>
+      <c r="H198"/>
+      <c r="I198"/>
+    </row>
+    <row r="199" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="F199"/>
+      <c r="G199"/>
+      <c r="H199"/>
+      <c r="I199"/>
+      <c r="J199"/>
+      <c r="K199"/>
+    </row>
+    <row r="200" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="F200"/>
+      <c r="G200"/>
+      <c r="H200"/>
+      <c r="I200"/>
+    </row>
+    <row r="201" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="F201"/>
+      <c r="G201"/>
+      <c r="H201"/>
+      <c r="I201"/>
+    </row>
+    <row r="202" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="F202"/>
+      <c r="G202"/>
+      <c r="H202"/>
+      <c r="I202"/>
+    </row>
+    <row r="203" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="F203"/>
+      <c r="G203"/>
+      <c r="H203"/>
+      <c r="I203"/>
+    </row>
+    <row r="204" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="F204"/>
+      <c r="G204"/>
+      <c r="H204"/>
+      <c r="I204"/>
+    </row>
+    <row r="205" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="F205"/>
+      <c r="G205"/>
+      <c r="H205"/>
+      <c r="I205"/>
+    </row>
+    <row r="206" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="F206"/>
+      <c r="G206"/>
+      <c r="H206"/>
+      <c r="I206"/>
+    </row>
+    <row r="207" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="F207"/>
+      <c r="G207"/>
+      <c r="H207"/>
+      <c r="I207"/>
+    </row>
+    <row r="208" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="F208"/>
+      <c r="G208"/>
+      <c r="H208"/>
+      <c r="I208"/>
+    </row>
+    <row r="209" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F209"/>
+      <c r="G209"/>
+      <c r="H209"/>
+      <c r="I209"/>
+    </row>
+    <row r="210" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F210"/>
+      <c r="G210"/>
+      <c r="H210"/>
+      <c r="I210"/>
+    </row>
+    <row r="211" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F211"/>
+      <c r="G211"/>
+      <c r="H211"/>
+      <c r="I211"/>
+    </row>
+    <row r="212" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F212"/>
+      <c r="G212"/>
+      <c r="H212"/>
+      <c r="I212"/>
+    </row>
+    <row r="213" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F213"/>
+      <c r="G213"/>
+      <c r="H213"/>
+      <c r="I213"/>
+    </row>
+    <row r="214" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F214"/>
+      <c r="G214"/>
+      <c r="H214"/>
+      <c r="I214"/>
+    </row>
+    <row r="215" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F215"/>
+      <c r="G215"/>
+      <c r="H215"/>
+      <c r="I215"/>
+    </row>
+    <row r="216" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F216"/>
+      <c r="G216"/>
+      <c r="H216"/>
+      <c r="I216"/>
+    </row>
+    <row r="217" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F217"/>
+      <c r="G217"/>
+      <c r="H217"/>
+      <c r="I217"/>
+    </row>
+    <row r="218" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F218"/>
+      <c r="G218"/>
+      <c r="H218"/>
+      <c r="I218"/>
+    </row>
+    <row r="219" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F219"/>
+      <c r="G219"/>
+    </row>
+    <row r="220" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F220"/>
+      <c r="G220"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="L1:P1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
